--- a/wnba.xlsx
+++ b/wnba.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholus Tint Zaw\Documents\GitHub\r_intro_lecture_day_1_live\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE0ECD01-1338-434A-8485-9BE904D62377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD63A90-3DE4-4EAB-AAB3-CC90E42642F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{897FEC96-039E-4750-B225-B92AB8DFA0F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="wnba" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="wnba" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1255,10 +1256,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53D5A2C-D4A2-4C59-AD2A-0E4800002F17}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63F57DC-85CA-4BE5-B5AF-48527A039F00}">
   <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/wnba.xlsx
+++ b/wnba.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholus Tint Zaw\Documents\GitHub\r_intro_lecture_day_1_live\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD63A90-3DE4-4EAB-AAB3-CC90E42642F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F26F4F-32CD-4EDB-9AD7-535946E3C2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{897FEC96-039E-4750-B225-B92AB8DFA0F3}"/>
+    <workbookView xWindow="28680" yWindow="630" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{897FEC96-039E-4750-B225-B92AB8DFA0F3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
     <sheet name="wnba" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -1256,12 +1257,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53D5A2C-D4A2-4C59-AD2A-0E4800002F17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE379300-27A9-43DF-B3C5-64F0529250E8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -1273,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63F57DC-85CA-4BE5-B5AF-48527A039F00}">
   <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -15386,6 +15385,20 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53D5A2C-D4A2-4C59-AD2A-0E4800002F17}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
